--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="275">
   <si>
     <t>날짜</t>
   </si>
@@ -449,8 +449,7 @@
     <t>원슈타인</t>
   </si>
   <si>
-    <t>The Kid LAROI
-The Kid LAROI</t>
+    <t>The Kid LAROI</t>
   </si>
   <si>
     <t>케이시</t>
@@ -2255,6 +2254,12 @@
       <c r="E46" t="s">
         <v>52</v>
       </c>
+      <c r="F46" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -169,8 +169,7 @@
     <t>사랑한다</t>
   </si>
   <si>
-    <t>[19금]
-abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>신호등</t>
@@ -600,9 +599,6 @@
   </si>
   <si>
     <t>ˣ‿ˣ (SMiLEY)</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>스물다섯 스물하나 OST Part 4</t>
@@ -1255,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1281,10 +1277,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1307,10 +1303,10 @@
         <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1333,10 +1329,10 @@
         <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1359,10 +1355,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1385,10 +1381,10 @@
         <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1411,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1437,10 +1433,10 @@
         <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1463,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1489,10 +1485,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1515,10 +1511,10 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1541,10 +1537,10 @@
         <v>182</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1567,10 +1563,10 @@
         <v>183</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1593,10 +1589,10 @@
         <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1619,10 +1615,10 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1645,10 +1641,10 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1671,10 +1667,10 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1697,10 +1693,10 @@
         <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1723,10 +1719,10 @@
         <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1749,10 +1745,10 @@
         <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1775,10 +1771,10 @@
         <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1801,10 +1797,10 @@
         <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1827,10 +1823,10 @@
         <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1853,10 +1849,10 @@
         <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1879,10 +1875,10 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1905,10 +1901,10 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1931,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1957,10 +1953,10 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1983,10 +1979,10 @@
         <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2009,10 +2005,10 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2035,10 +2031,10 @@
         <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2061,10 +2057,10 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2087,10 +2083,10 @@
         <v>182</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2113,10 +2109,10 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2139,10 +2135,10 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2165,10 +2161,10 @@
         <v>193</v>
       </c>
       <c r="G37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2191,10 +2187,10 @@
         <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2217,10 +2213,10 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2243,10 +2239,10 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2269,10 +2265,10 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2295,10 +2291,10 @@
         <v>182</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2318,13 +2314,13 @@
         <v>143</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2347,10 +2343,10 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2370,13 +2366,13 @@
         <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2399,10 +2395,10 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2422,13 +2418,13 @@
         <v>147</v>
       </c>
       <c r="F47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2451,10 +2447,10 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2477,10 +2473,10 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2503,10 +2499,10 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2526,13 +2522,13 @@
         <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2555,10 +2551,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2578,13 +2574,13 @@
         <v>152</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2607,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2630,13 +2626,13 @@
         <v>153</v>
       </c>
       <c r="F55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2656,13 +2652,13 @@
         <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2685,10 +2681,10 @@
         <v>182</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2711,10 +2707,10 @@
         <v>182</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2734,13 +2730,13 @@
         <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2760,13 +2756,13 @@
         <v>151</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2786,13 +2782,13 @@
         <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2815,10 +2811,10 @@
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2841,10 +2837,10 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2864,13 +2860,13 @@
         <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2893,10 +2889,10 @@
         <v>182</v>
       </c>
       <c r="G65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2919,10 +2915,10 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2942,13 +2938,13 @@
         <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2968,13 +2964,13 @@
         <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2997,10 +2993,10 @@
         <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3020,13 +3016,13 @@
         <v>159</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3046,13 +3042,13 @@
         <v>149</v>
       </c>
       <c r="F71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3072,13 +3068,13 @@
         <v>149</v>
       </c>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3098,13 +3094,13 @@
         <v>136</v>
       </c>
       <c r="F73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3127,10 +3123,10 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3150,13 +3146,13 @@
         <v>161</v>
       </c>
       <c r="F75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3179,10 +3175,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3206,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3232,10 +3228,10 @@
         <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3255,13 +3251,13 @@
         <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3281,13 +3277,13 @@
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3307,13 +3303,13 @@
         <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3336,10 +3332,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3359,13 +3355,13 @@
         <v>132</v>
       </c>
       <c r="F83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3385,13 +3381,13 @@
         <v>120</v>
       </c>
       <c r="F84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3411,13 +3407,13 @@
         <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3437,13 +3433,13 @@
         <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3463,13 +3459,13 @@
         <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3489,13 +3485,13 @@
         <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3515,13 +3511,13 @@
         <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3544,10 +3540,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3570,10 +3566,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3593,13 +3589,13 @@
         <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3619,13 +3615,13 @@
         <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3645,13 +3641,13 @@
         <v>120</v>
       </c>
       <c r="F94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3671,13 +3667,13 @@
         <v>166</v>
       </c>
       <c r="F95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3697,13 +3693,13 @@
         <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3723,13 +3719,13 @@
         <v>120</v>
       </c>
       <c r="F97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3749,13 +3745,13 @@
         <v>174</v>
       </c>
       <c r="F98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3775,13 +3771,13 @@
         <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3801,13 +3797,13 @@
         <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3827,13 +3823,13 @@
         <v>177</v>
       </c>
       <c r="F101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-04-27</t>
@@ -3198,7 +3198,6 @@
         <v>142</v>
       </c>
       <c r="F77">
-        <f/>
         <v>0</v>
       </c>
       <c r="G77" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220427_110836.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>에버그로우</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -839,9 +839,6 @@
   </si>
   <si>
     <t>에릭남컴퍼니</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1303,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1332,7 +1329,7 @@
         <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1358,7 +1355,7 @@
         <v>235</v>
       </c>
       <c r="H6" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1410,7 +1407,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1436,7 +1433,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1462,7 +1459,7 @@
         <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1488,7 +1485,7 @@
         <v>240</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1566,7 +1563,7 @@
         <v>242</v>
       </c>
       <c r="H14" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1592,7 +1589,7 @@
         <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1618,7 +1615,7 @@
         <v>243</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1644,7 +1641,7 @@
         <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1748,7 +1745,7 @@
         <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1774,7 +1771,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1800,7 +1797,7 @@
         <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1826,7 +1823,7 @@
         <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1852,7 +1849,7 @@
         <v>248</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1878,7 +1875,7 @@
         <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1904,7 +1901,7 @@
         <v>249</v>
       </c>
       <c r="H27" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1930,7 +1927,7 @@
         <v>240</v>
       </c>
       <c r="H28" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1956,7 +1953,7 @@
         <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1982,7 +1979,7 @@
         <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2008,7 +2005,7 @@
         <v>252</v>
       </c>
       <c r="H31" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2034,7 +2031,7 @@
         <v>245</v>
       </c>
       <c r="H32" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2112,7 +2109,7 @@
         <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2138,7 +2135,7 @@
         <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2164,7 +2161,7 @@
         <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2190,7 +2187,7 @@
         <v>254</v>
       </c>
       <c r="H38" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2216,7 +2213,7 @@
         <v>255</v>
       </c>
       <c r="H39" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2242,7 +2239,7 @@
         <v>240</v>
       </c>
       <c r="H40" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2268,7 +2265,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2320,7 +2317,7 @@
         <v>240</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2346,7 +2343,7 @@
         <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2372,7 +2369,7 @@
         <v>248</v>
       </c>
       <c r="H45" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2398,7 +2395,7 @@
         <v>240</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2424,7 +2421,7 @@
         <v>257</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2450,7 +2447,7 @@
         <v>258</v>
       </c>
       <c r="H48" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2502,7 +2499,7 @@
         <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2528,7 +2525,7 @@
         <v>248</v>
       </c>
       <c r="H51" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2580,7 +2577,7 @@
         <v>259</v>
       </c>
       <c r="H53" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2736,7 +2733,7 @@
         <v>252</v>
       </c>
       <c r="H59" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2814,7 +2811,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2840,7 +2837,7 @@
         <v>261</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2866,7 +2863,7 @@
         <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2944,7 +2941,7 @@
         <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2970,7 +2967,7 @@
         <v>262</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2996,7 +2993,7 @@
         <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3022,7 +3019,7 @@
         <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3100,7 +3097,7 @@
         <v>252</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3126,7 +3123,7 @@
         <v>240</v>
       </c>
       <c r="H74" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3152,7 +3149,7 @@
         <v>264</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3178,7 +3175,7 @@
         <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3204,7 +3201,7 @@
         <v>240</v>
       </c>
       <c r="H77" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3230,7 +3227,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3256,7 +3253,7 @@
         <v>261</v>
       </c>
       <c r="H79" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3282,7 +3279,7 @@
         <v>252</v>
       </c>
       <c r="H80" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3308,7 +3305,7 @@
         <v>240</v>
       </c>
       <c r="H81" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3360,7 +3357,7 @@
         <v>249</v>
       </c>
       <c r="H83" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3412,7 +3409,7 @@
         <v>266</v>
       </c>
       <c r="H85" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3438,7 +3435,7 @@
         <v>240</v>
       </c>
       <c r="H86" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3464,7 +3461,7 @@
         <v>267</v>
       </c>
       <c r="H87" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3490,7 +3487,7 @@
         <v>268</v>
       </c>
       <c r="H88" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3542,7 +3539,7 @@
         <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3568,7 +3565,7 @@
         <v>269</v>
       </c>
       <c r="H91" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3594,7 +3591,7 @@
         <v>270</v>
       </c>
       <c r="H92" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3620,7 +3617,7 @@
         <v>271</v>
       </c>
       <c r="H93" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3672,7 +3669,7 @@
         <v>267</v>
       </c>
       <c r="H95" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3698,7 +3695,7 @@
         <v>272</v>
       </c>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3776,7 +3773,7 @@
         <v>273</v>
       </c>
       <c r="H99" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3828,7 +3825,7 @@
         <v>274</v>
       </c>
       <c r="H101" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
